--- a/datastructure/datastructure.xlsx
+++ b/datastructure/datastructure.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dream\technical-information\datastructure\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7169701-ECB3-4638-BED6-B4F6A593D1FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="datastructure" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,13 +74,18 @@
   </si>
   <si>
     <t>红黑树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.左侧节点大于右侧节点
+2.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -153,12 +152,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -220,7 +222,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -255,7 +257,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -432,27 +434,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -469,7 +472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -480,7 +483,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -491,7 +494,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -502,7 +505,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -513,7 +516,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -524,7 +527,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -535,18 +538,20 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -557,7 +562,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -568,21 +573,21 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>

--- a/datastructure/datastructure.xlsx
+++ b/datastructure/datastructure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="-105" windowWidth="20625" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="datastructure" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,10 +29,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>详细解释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>应用场景</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -65,20 +61,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>B+树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红黑树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平衡二叉树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉查找树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>B树</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B+树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红黑树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.左侧节点大于右侧节点
-2.</t>
+    <t>读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(n)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,7 +469,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -442,20 +477,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.25" customWidth="1"/>
+    <col min="3" max="3" width="23.625" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="10.375" customWidth="1"/>
+    <col min="8" max="8" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -463,136 +503,249 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/datastructure/datastructure.xlsx
+++ b/datastructure/datastructure.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dream\technical-information\datastructure\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CEC327-04CE-4671-94F5-960F5E5AD633}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-105" windowWidth="20625" windowHeight="11760"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="datastructure" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,7 +126,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -469,33 +475,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.625" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.58203125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="10.375" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
     <col min="8" max="8" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -527,7 +533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -551,7 +557,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -567,7 +573,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -583,7 +589,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -592,14 +598,18 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -607,7 +617,9 @@
         <v>8</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -615,7 +627,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -631,7 +643,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -647,7 +659,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -663,7 +675,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -679,7 +691,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -695,7 +707,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -711,7 +723,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -723,7 +735,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -735,7 +747,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
